--- a/conven_control/data/flat_data_v2.xlsx
+++ b/conven_control/data/flat_data_v2.xlsx
@@ -11,10 +11,13 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$14</definedName>
+  </definedNames>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -27,10 +30,11 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -48,12 +52,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,7 +77,7 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -90,9 +100,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -112,20 +130,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>0.53474</v>
+        <v>0.5347</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>-0.47</v>
@@ -133,97 +155,100 @@
       <c r="C1" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D1" s="0" t="n">
-        <v>-115.58</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>-115.07</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1" t="n">
+        <v>-116.6972</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>88.6976</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>-116.20882</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0.53474</v>
+        <v>0.5347</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.31736</v>
+        <v>-0.3174</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>-115.57</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>-115.06</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="n">
+        <v>-117.0372</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>88.7551</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>-116.5708</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>0.53474</v>
+        <v>0.5347</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.11401</v>
+        <v>-0.114</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>-115.6</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>-115.09</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="n">
+        <v>-117.26157</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>88.8048</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-116.75777</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>0.53474</v>
+        <v>0.5347</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.00179</v>
+        <v>0.0018</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>-115.616</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>-115.1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1" t="n">
+        <v>-118.313148</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>88.77339</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>-117.81456</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>0.53474</v>
+        <v>0.5347</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.23548</v>
+        <v>0.2355</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>-115.59</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>-115.08</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="n">
+        <v>-118.171049</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>88.80769</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>-117.70646</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>0.6927</v>
       </c>
@@ -233,17 +258,17 @@
       <c r="C6" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>-115.6</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>88.774</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>-115.09</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="n">
+        <v>-115.7904</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>88.72862</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>-115.3303</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>0.6927</v>
       </c>
@@ -253,83 +278,83 @@
       <c r="C7" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>-115.57</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>-115.05</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1" t="n">
+        <v>-115.43569</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>88.7921</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>-114.93791</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>0.6927</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-0.14416</v>
+        <v>-0.1442</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>-115.45</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>-114.93</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="1" t="n">
+        <v>-113.2974</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>88.79231</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-112.78326</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>0.6927</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.05705</v>
+        <v>0.057</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>-115.41</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>-114.89</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="n">
+        <v>-114.4801</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>88.73074</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>-114.0073009</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>0.6927</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.24358</v>
+        <v>0.2436</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>-0.308</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>-115.38</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>88.77</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>-114.86</v>
+      <c r="D10" s="1" t="n">
+        <v>-117.42243</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>88.75638</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-116.941219</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -339,44 +364,325 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>0.6927</v>
+        <v>0.65</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>-0.47</v>
+        <v>-0.35</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>-0.308</v>
+        <v>-0.278</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>-115.603</v>
+        <v>0</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>88.774</v>
+        <v>1.57079</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>-115.086</v>
-      </c>
-    </row>
+        <v>-2.402623</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1.04089</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>-0.884242</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2.62504</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.6607131</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>-2.38055</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>-1.851007</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3.0744508</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.4720657</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>-0.70484904</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>-2.833509</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1.2290612</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>-1.121205</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>-2.39519</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1.57079</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>-2.562253</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>